--- a/public/data/config-data.xlsx
+++ b/public/data/config-data.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Projects\xg-config-navigator\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmiller\Data\Config\CodeSnippets\xg-config-navigator\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06751AC6-803A-4C51-8DA3-7506C3DCFD33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE67423-F14E-4ED5-BEC5-023853703352}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{AED3EB1B-5766-4A08-88F7-67D0A5FB3B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{AED3EB1B-5766-4A08-88F7-67D0A5FB3B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="_Setup Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Environment" sheetId="4" r:id="rId2"/>
-    <sheet name="Person" sheetId="1" r:id="rId3"/>
-    <sheet name="Team" sheetId="3" r:id="rId4"/>
+    <sheet name="Application" sheetId="6" r:id="rId3"/>
+    <sheet name="Container" sheetId="7" r:id="rId4"/>
+    <sheet name="Person" sheetId="1" r:id="rId5"/>
+    <sheet name="Team" sheetId="3" r:id="rId6"/>
+    <sheet name="Service" sheetId="8" r:id="rId7"/>
+    <sheet name="_Styles" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>The following conventions are used in this spreadsheet to drive behavior in the navigator app.</t>
   </si>
@@ -180,9 +184,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>:BELONGS_TO Team</t>
-  </si>
-  <si>
     <t>TeamDba</t>
   </si>
   <si>
@@ -193,6 +194,111 @@
   </si>
   <si>
     <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>Selector</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>node[groupName='Team']</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>node[groupName='Person']</t>
+  </si>
+  <si>
+    <t>node[groupName='Environment']</t>
+  </si>
+  <si>
+    <t>background-image: url('https://openclipart.org/image/300px/svg_to_png/35389/applications-internet.png')</t>
+  </si>
+  <si>
+    <t>background-image: url('https://openclipart.org/image/300px/svg_to_png/30217/face-smile.png')</t>
+  </si>
+  <si>
+    <t>background-image: url('https://openclipart.org/image/300px/svg_to_png/212154/rodentia-icons_accessories-users.png')</t>
+  </si>
+  <si>
+    <t>node[groupName='Application']</t>
+  </si>
+  <si>
+    <t>background-image: url('https://openclipart.org/image/300px/svg_to_png/35407/applications-other.png')</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>MongoSalesDB</t>
+  </si>
+  <si>
+    <t>Neo4jMarketingDB</t>
+  </si>
+  <si>
+    <t>node[groupName='Container']</t>
+  </si>
+  <si>
+    <t>background-image: url('https://openclipart.org/image/300px/svg_to_png/36145/1270238622.png')</t>
+  </si>
+  <si>
+    <t>CntrCompanyWeb</t>
+  </si>
+  <si>
+    <t>CntrCRM</t>
+  </si>
+  <si>
+    <t>background-image</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>https://openclipart.org/image/300px/svg_to_png/36073/1270234482.png</t>
+  </si>
+  <si>
+    <t>node#CntrCRM</t>
+  </si>
+  <si>
+    <t>node[id^='Neo4j']</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/profile_images/880015248324837376/rsuw4VRB_400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://openclipart.org/image/300px/svg_to_png/34957/utente-singolo-architet-01r.png</t>
+  </si>
+  <si>
+    <t>SvcHttp</t>
+  </si>
+  <si>
+    <t>SvcSmtp</t>
+  </si>
+  <si>
+    <t>:INCLUDES Item</t>
+  </si>
+  <si>
+    <t>node[groupName='Service']</t>
+  </si>
+  <si>
+    <t>https://openclipart.org/image/300px/svg_to_png/35413/applications-system.png</t>
+  </si>
+  <si>
+    <t>SvcHttp, SvcSmtp</t>
+  </si>
+  <si>
+    <t>:INCLUDES Person</t>
+  </si>
+  <si>
+    <t>DbaDan, DbaDianna</t>
+  </si>
+  <si>
+    <t>DbaDianna</t>
   </si>
 </sst>
 </file>
@@ -236,16 +342,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -266,10 +390,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08D6ED68-042C-4C6A-9B52-1FE9CB8CF972}" name="Table20" displayName="Table20" ref="A3:A24" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08D6ED68-042C-4C6A-9B52-1FE9CB8CF972}" name="Table20" displayName="Table20" ref="A3:A24" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A3:A24" xr:uid="{70420384-00F1-4795-B126-51264CD95BB4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A76BA0E6-D8B7-4290-9789-B3D72F027406}" name="Convention" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A76BA0E6-D8B7-4290-9789-B3D72F027406}" name="Convention" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -288,25 +412,75 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{881ACF20-5F07-4FF6-A393-E9AFA51F4F4E}" name="PersonTable" displayName="PersonTable" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{B7703F4A-740C-4C1B-8448-9C44E8D12881}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F0D86212-98CD-4304-A8E1-07D0FEED07C4}" name="ApplicationTable" displayName="ApplicationTable" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{B110E19F-E163-4F03-9398-6CDD15F1A824}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C0DBF55C-5E45-4E67-BD2B-E667B15B12E7}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{7ED19A23-D31A-4008-A8D5-39C79FEEF461}" name="Comments"/>
+    <tableColumn id="3" xr3:uid="{BDE32126-CEFE-49AC-9018-1DC1C6A8C08F}" name="Tags"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FCFE5C43-5D92-4E74-8CE5-A1C35E25F9C5}" name="ContainerTable" displayName="ContainerTable" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{2B34BA78-97C3-4189-BF61-54084325134B}"/>
   <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E27675C8-F77F-44DF-A5A3-69623640154B}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{81982C07-4A93-44BD-A285-5E93319A35EB}" name=":INCLUDES Item"/>
+    <tableColumn id="2" xr3:uid="{65CD3BF2-51A3-4F60-BD21-CF877D8ABC80}" name="Comments"/>
+    <tableColumn id="3" xr3:uid="{2DBB157E-E1E9-411F-95B7-07DBD41AEE45}" name="Tags"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{881ACF20-5F07-4FF6-A393-E9AFA51F4F4E}" name="PersonTable" displayName="PersonTable" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{B7703F4A-740C-4C1B-8448-9C44E8D12881}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EE8B092C-68BA-42B0-B29B-0438171132A6}" name="Name"/>
     <tableColumn id="3" xr3:uid="{8AD5CE24-C678-452C-9846-FF359D39EBD9}" name="Role"/>
-    <tableColumn id="4" xr3:uid="{6A081B40-C7D0-4A67-A118-5D70BB3D2E12}" name=":BELONGS_TO Team"/>
     <tableColumn id="2" xr3:uid="{E3ED9221-CF41-42C5-8AB3-B17039B00543}" name="Tags"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD3513C9-55DA-4265-81F5-442B0847D92D}" name="TeamTable" displayName="TeamTable" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{D2625944-1243-4BF8-999F-05A151419F8D}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD3513C9-55DA-4265-81F5-442B0847D92D}" name="TeamTable" displayName="TeamTable" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{D2625944-1243-4BF8-999F-05A151419F8D}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2ABB52D6-A19F-403D-AA1C-CCD76A21FF64}" name="Name"/>
     <tableColumn id="3" xr3:uid="{0B307BE1-3514-487C-8842-BE3C862E6A10}" name=":SUPPORTS Environment"/>
+    <tableColumn id="4" xr3:uid="{C13F0D7D-1DB9-442C-98E8-BEE004D3AC8B}" name=":INCLUDES Person"/>
     <tableColumn id="2" xr3:uid="{DBC25FA2-2917-48A0-A613-B3105F5BEB33}" name="Tags"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EE3AAC45-2EF5-46F4-88D7-89E2BE67BF86}" name="ServiceTable" displayName="ServiceTable" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{19B42841-ED28-41D3-BA72-7946B1403E02}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6B337840-DA63-4730-8FA7-13ACEFE79558}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{3536FFD7-75F6-43D1-8C26-7D3ED201B9B6}" name="Comments"/>
+    <tableColumn id="3" xr3:uid="{F5CFDE9A-EFA9-4E3B-8245-AD8F131F0E92}" name="Tags"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B98F1846-6B4D-4966-8ECF-779EDA6E6F89}" name="StyleTable" displayName="StyleTable" ref="A1:D10" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:D10" xr:uid="{964F3185-5F74-42D3-A032-BBFA7F7168B3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{71369F50-ADB2-45CE-937D-99BA6B5B84E2}" name="Selector" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AECA56A9-49EB-4052-9181-5228181C6C9F}" name="Styles" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{482BF083-7EB5-4FDC-B9FD-83A41EA4BB61}" name="background-image" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7F464C86-E8EF-4D77-9C12-39B8712102CF}" name="shape" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,38 +986,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D0521-F52E-48B5-ACF1-583CB94553BF}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964B40D-1E84-434F-9E77-2FB5A94BA89B}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -855,18 +1030,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D34FF-82E9-496E-8373-3B5DE3232F53}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B550414-CD0A-4521-BECB-2831198FD434}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D0521-F52E-48B5-ACF1-583CB94553BF}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D34FF-82E9-496E-8373-3B5DE3232F53}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9E63A-9C17-4FD5-BCB1-0E786E4F0D41}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -882,35 +1232,143 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E920DE5-0890-475F-9546-BC57256C2CD3}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
